--- a/starBillOfMaterials.xlsx
+++ b/starBillOfMaterials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="215">
   <si>
     <t>system</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/catalog/129/3618/90107A010</t>
+  </si>
+  <si>
+    <t>quick disconnect (22-18 AWG, female, single crimp)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/7243K128/</t>
+  </si>
+  <si>
+    <t>quick disconnect (22-18 AWG, male, single crimp)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/7243K131/</t>
+  </si>
+  <si>
+    <t>CAT5e cable (24 AWG, 8 strand)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/belden-inc/7919A-0101000/7008055</t>
   </si>
   <si>
     <t>Computer control hardware</t>
@@ -1159,7 +1177,7 @@
         <v>74.0</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" ref="F11:F31" si="2">D11*E11</f>
+        <f t="shared" ref="F11:F34" si="2">D11*E11</f>
         <v>74</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1615,34 +1633,45 @@
     </row>
     <row r="32">
       <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="D32" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.58</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>1.74</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="9"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E33" s="6">
-        <v>1501.0</v>
+        <v>0.58</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" ref="F33:F36" si="3">D33*E33</f>
-        <v>1501</v>
+        <f t="shared" si="2"/>
+        <v>1.74</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>72</v>
@@ -1655,69 +1684,77 @@
         <v>73</v>
       </c>
       <c r="D34" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
+        <v>26.55</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="5">
         <v>1.0</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E36" s="6">
+        <v>1501.0</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" ref="F36:F39" si="3">D36*E36</f>
+        <v>1501</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="6">
         <v>798.0</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F37" s="7">
         <f t="shared" si="3"/>
         <v>798</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>676.0</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="3"/>
-        <v>676</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="3"/>
-        <v>13.44</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="11" t="s">
+      <c r="H37" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1731,180 +1768,179 @@
         <v>1.0</v>
       </c>
       <c r="E38" s="6">
-        <v>2.78</v>
+        <v>676.0</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:F45" si="4">D38*E38</f>
-        <v>2.78</v>
+        <f t="shared" si="3"/>
+        <v>676</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E39" s="6">
-        <v>0.28</v>
+        <v>1.68</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="4"/>
-        <v>1.68</v>
+        <f t="shared" si="3"/>
+        <v>13.44</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="4"/>
-        <v>0.48</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>58</v>
+      <c r="B40" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D41" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" s="6">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="4"/>
-        <v>11.55</v>
+        <f t="shared" ref="F41:F48" si="4">D41*E41</f>
+        <v>2.78</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="9"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" s="6">
-        <v>0.85</v>
+        <v>0.28</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="4"/>
-        <v>3.4</v>
+        <v>1.68</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D43" s="5">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E43" s="6">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="4"/>
-        <v>3.84</v>
+        <v>0.48</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="5">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
       <c r="E44" s="6">
-        <v>0.17</v>
+        <v>3.85</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>5.1</v>
+        <v>11.55</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="E45" s="6">
-        <v>0.23</v>
+        <v>0.85</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="4"/>
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="4"/>
+        <v>3.84</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1915,86 +1951,68 @@
         <v>96</v>
       </c>
       <c r="D47" s="5">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E47" s="6">
-        <v>4.2</v>
+        <v>0.17</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" ref="F47:F54" si="5">D47*E47</f>
-        <v>4.2</v>
+        <f t="shared" si="4"/>
+        <v>5.1</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>24</v>
+        <v>97</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E48" s="6">
-        <v>0.67</v>
+        <v>0.23</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="5"/>
-        <v>3.35</v>
+        <f t="shared" si="4"/>
+        <v>2.3</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0.54</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="5"/>
-        <v>0.54</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>100</v>
+      <c r="B49" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" s="6">
-        <v>0.52</v>
+        <v>4.2</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="5"/>
-        <v>1.04</v>
+        <f t="shared" ref="F50:F57" si="5">D50*E50</f>
+        <v>4.2</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2004,17 +2022,17 @@
         <v>103</v>
       </c>
       <c r="D51" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E51" s="6">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>0.54</v>
+        <v>3.35</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>104</v>
@@ -2030,14 +2048,14 @@
         <v>1.0</v>
       </c>
       <c r="E52" s="6">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="5"/>
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>106</v>
@@ -2045,21 +2063,22 @@
     </row>
     <row r="53">
       <c r="A53" s="9"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D53" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" s="6">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="5"/>
-        <v>0.76</v>
+        <v>1.04</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>108</v>
@@ -2072,553 +2091,555 @@
         <v>109</v>
       </c>
       <c r="D54" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E54" s="6">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="5"/>
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="D55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="9"/>
+      <c r="C56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="57">
+      <c r="A57" s="9"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>1.0</v>
       </c>
       <c r="E57" s="6">
-        <v>20.0</v>
+        <v>0.76</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" ref="F57:F63" si="6">D57*E57</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" si="6"/>
-        <v>15.2</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="5"/>
+      <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
     <row r="59">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>17.4</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="6"/>
-        <v>278.4</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="B59" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" s="5">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="E60" s="6">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>31</v>
+        <f t="shared" ref="F60:F66" si="6">D60*E60</f>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D61" s="5">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="E61" s="6">
-        <v>20.0</v>
+        <v>0.95</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
+        <v>15.2</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="5"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="5">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="E62" s="6">
-        <v>0.23</v>
+        <v>17.4</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="6"/>
-        <v>0.46</v>
+        <v>278.4</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D63" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="E63" s="6">
         <v>2.0</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0.29</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="6"/>
-        <v>0.58</v>
+        <v>32</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
-      <c r="C65" s="12" t="s">
-        <v>125</v>
+      <c r="C65" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D65" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E65" s="6">
-        <v>20.0</v>
+        <v>0.23</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" ref="F65:F76" si="7">D65*E65</f>
-        <v>20</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+        <f t="shared" si="6"/>
+        <v>0.46</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.29</v>
+      </c>
+      <c r="F66" s="7">
+        <f t="shared" si="6"/>
+        <v>0.58</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="5"/>
+      <c r="C68" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" ref="F68:F79" si="7">D68*E68</f>
+        <v>20</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="5">
         <v>16.0</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E69" s="6">
         <v>0.8</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F69" s="7">
         <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0.46</v>
-      </c>
-      <c r="F67" s="7">
-        <f t="shared" si="7"/>
-        <v>7.36</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="E68" s="6">
-        <v>5.09</v>
-      </c>
-      <c r="F68" s="7">
-        <f t="shared" si="7"/>
-        <v>81.44</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="5">
-        <v>32.0</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="F69" s="7">
-        <f t="shared" si="7"/>
-        <v>3.84</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="H69" s="5"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="D70" s="5">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="E70" s="6">
-        <v>0.06</v>
+        <v>0.46</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="7"/>
-        <v>1.92</v>
+        <v>7.36</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D71" s="5">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="E71" s="6">
-        <v>0.03</v>
+        <v>5.09</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" si="7"/>
-        <v>0.96</v>
+        <v>81.44</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D72" s="5">
-        <v>4.0</v>
+        <v>44.0</v>
       </c>
       <c r="E72" s="6">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="F72" s="7">
         <f t="shared" si="7"/>
-        <v>1.24</v>
+        <v>5.28</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="D73" s="5">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="E73" s="6">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="7"/>
-        <v>15.04</v>
+        <v>2.64</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" s="5">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c r="E74" s="6">
-        <v>29.4</v>
+        <v>0.03</v>
       </c>
       <c r="F74" s="7">
         <f t="shared" si="7"/>
-        <v>29.4</v>
+        <v>1.32</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E75" s="6">
-        <v>11.82</v>
+        <v>0.31</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="7"/>
-        <v>11.82</v>
+        <v>1.24</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" s="5">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="E76" s="6">
-        <v>28.8</v>
+        <v>0.47</v>
       </c>
       <c r="F76" s="7">
         <f t="shared" si="7"/>
-        <v>115.2</v>
+        <v>15.04</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="D77" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="7"/>
+        <v>29.4</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="78">
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D78" s="5">
         <v>1.0</v>
       </c>
       <c r="E78" s="6">
-        <v>23.31</v>
+        <v>11.82</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" ref="F78:F105" si="8">D78*E78</f>
-        <v>23.31</v>
+        <f t="shared" si="7"/>
+        <v>11.82</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="79">
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D79" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E79" s="6">
-        <v>0.5</v>
+        <v>28.8</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+        <f t="shared" si="7"/>
+        <v>115.2</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="F80" s="7">
-        <f t="shared" si="8"/>
-        <v>1.44</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>150</v>
-      </c>
+      <c r="B80" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81">
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D81" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E81" s="6">
-        <v>4.12</v>
+        <v>23.31</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="8"/>
-        <v>8.24</v>
+        <f t="shared" ref="F81:F108" si="8">D81*E81</f>
+        <v>23.31</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>152</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H81" s="5"/>
     </row>
     <row r="82">
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D82" s="5">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E82" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F82" s="7">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83">
       <c r="B83" s="5"/>
@@ -2626,83 +2647,83 @@
         <v>155</v>
       </c>
       <c r="D83" s="5">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="E83" s="6">
-        <v>2.02</v>
+        <v>0.09</v>
       </c>
       <c r="F83" s="7">
         <f t="shared" si="8"/>
-        <v>4.04</v>
+        <v>1.44</v>
       </c>
       <c r="G83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E84" s="6">
-        <v>3.03</v>
+        <v>4.12</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="8"/>
-        <v>12.12</v>
+        <v>8.24</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="5">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="E85" s="6">
-        <v>6.4</v>
+        <v>0.25</v>
       </c>
       <c r="F85" s="7">
         <f t="shared" si="8"/>
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" s="5">
         <v>2.0</v>
       </c>
       <c r="E86" s="6">
-        <v>26.5</v>
+        <v>2.02</v>
       </c>
       <c r="F86" s="7">
         <f t="shared" si="8"/>
-        <v>53</v>
+        <v>4.04</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>163</v>
@@ -2714,17 +2735,17 @@
         <v>164</v>
       </c>
       <c r="D87" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E87" s="6">
-        <v>0.88</v>
+        <v>3.03</v>
       </c>
       <c r="F87" s="7">
         <f t="shared" si="8"/>
-        <v>1.76</v>
+        <v>12.12</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>165</v>
@@ -2736,17 +2757,17 @@
         <v>166</v>
       </c>
       <c r="D88" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E88" s="6">
-        <v>4.95</v>
+        <v>6.4</v>
       </c>
       <c r="F88" s="7">
         <f t="shared" si="8"/>
-        <v>4.95</v>
+        <v>12.8</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>167</v>
@@ -2758,17 +2779,17 @@
         <v>168</v>
       </c>
       <c r="D89" s="5">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E89" s="6">
-        <v>0.79</v>
+        <v>26.5</v>
       </c>
       <c r="F89" s="7">
         <f t="shared" si="8"/>
-        <v>12.64</v>
+        <v>53</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>169</v>
@@ -2783,14 +2804,14 @@
         <v>2.0</v>
       </c>
       <c r="E90" s="6">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F90" s="7">
         <f t="shared" si="8"/>
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>171</v>
@@ -2802,17 +2823,17 @@
         <v>172</v>
       </c>
       <c r="D91" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E91" s="6">
-        <v>0.359</v>
+        <v>4.95</v>
       </c>
       <c r="F91" s="7">
         <f t="shared" si="8"/>
-        <v>1.436</v>
+        <v>4.95</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>173</v>
@@ -2824,17 +2845,17 @@
         <v>174</v>
       </c>
       <c r="D92" s="5">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="E92" s="6">
-        <v>0.093</v>
+        <v>0.79</v>
       </c>
       <c r="F92" s="7">
         <f t="shared" si="8"/>
-        <v>0.372</v>
+        <v>12.64</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>175</v>
@@ -2849,14 +2870,14 @@
         <v>2.0</v>
       </c>
       <c r="E93" s="6">
-        <v>0.368</v>
+        <v>0.79</v>
       </c>
       <c r="F93" s="7">
         <f t="shared" si="8"/>
-        <v>0.736</v>
+        <v>1.58</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>177</v>
@@ -2868,17 +2889,17 @@
         <v>178</v>
       </c>
       <c r="D94" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E94" s="6">
-        <v>0.015</v>
+        <v>0.359</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="8"/>
-        <v>0.03</v>
+        <v>1.436</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>179</v>
@@ -2890,17 +2911,17 @@
         <v>180</v>
       </c>
       <c r="D95" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E95" s="6">
-        <v>0.281</v>
+        <v>0.093</v>
       </c>
       <c r="F95" s="7">
         <f t="shared" si="8"/>
-        <v>0.562</v>
+        <v>0.372</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>181</v>
@@ -2915,14 +2936,14 @@
         <v>2.0</v>
       </c>
       <c r="E96" s="6">
-        <v>0.218</v>
+        <v>0.368</v>
       </c>
       <c r="F96" s="7">
         <f t="shared" si="8"/>
-        <v>0.436</v>
+        <v>0.736</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>183</v>
@@ -2937,14 +2958,14 @@
         <v>2.0</v>
       </c>
       <c r="E97" s="6">
-        <v>0.154</v>
+        <v>0.015</v>
       </c>
       <c r="F97" s="7">
         <f t="shared" si="8"/>
-        <v>0.308</v>
+        <v>0.03</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>185</v>
@@ -2959,14 +2980,14 @@
         <v>2.0</v>
       </c>
       <c r="E98" s="6">
-        <v>0.222</v>
+        <v>0.281</v>
       </c>
       <c r="F98" s="7">
         <f t="shared" si="8"/>
-        <v>0.444</v>
+        <v>0.562</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>187</v>
@@ -2978,17 +2999,17 @@
         <v>188</v>
       </c>
       <c r="D99" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E99" s="6">
-        <v>9.37</v>
+        <v>0.218</v>
       </c>
       <c r="F99" s="7">
         <f t="shared" si="8"/>
-        <v>9.37</v>
+        <v>0.436</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>189</v>
@@ -3000,17 +3021,17 @@
         <v>190</v>
       </c>
       <c r="D100" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E100" s="6">
-        <v>2.5</v>
+        <v>0.154</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0.308</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>191</v>
@@ -3025,14 +3046,14 @@
         <v>2.0</v>
       </c>
       <c r="E101" s="6">
-        <v>3.25</v>
+        <v>0.222</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="8"/>
-        <v>6.5</v>
+        <v>0.444</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>193</v>
@@ -3044,17 +3065,17 @@
         <v>194</v>
       </c>
       <c r="D102" s="5">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="E102" s="6">
-        <v>1.08</v>
+        <v>9.37</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="8"/>
-        <v>17.28</v>
+        <v>9.37</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>195</v>
@@ -3066,17 +3087,17 @@
         <v>196</v>
       </c>
       <c r="D103" s="5">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="E103" s="6">
-        <v>0.0354</v>
+        <v>2.5</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="8"/>
-        <v>0.5664</v>
+        <v>2.5</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>197</v>
@@ -3091,14 +3112,14 @@
         <v>2.0</v>
       </c>
       <c r="E104" s="6">
-        <v>0.1</v>
+        <v>3.25</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>199</v>
@@ -3113,152 +3134,209 @@
         <v>16.0</v>
       </c>
       <c r="E105" s="6">
-        <v>0.098</v>
+        <v>1.08</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="8"/>
-        <v>1.568</v>
+        <v>17.28</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="D106" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.0354</v>
+      </c>
+      <c r="F106" s="7">
+        <f t="shared" si="8"/>
+        <v>0.5664</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="107">
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="D107" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E107" s="6">
-        <v>2.93</v>
+        <v>0.1</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" ref="F107:F111" si="9">D107*E107</f>
-        <v>2.93</v>
+        <f t="shared" si="8"/>
+        <v>0.2</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>24</v>
+        <v>135</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="5"/>
       <c r="C108" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D108" s="5">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="E108" s="6">
-        <v>65.31</v>
+        <v>0.098</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="9"/>
-        <v>65.31</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>204</v>
+        <f t="shared" si="8"/>
+        <v>1.568</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E109" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="F109" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="A109" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" s="4"/>
     </row>
     <row r="110">
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="D110" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E110" s="6">
-        <v>0.09</v>
+        <v>2.93</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" si="9"/>
-        <v>0.36</v>
+        <f t="shared" ref="F110:F114" si="9">D110*E110</f>
+        <v>2.93</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="5"/>
       <c r="C111" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D111" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E111" s="6">
-        <v>0.09</v>
+        <v>65.31</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="9"/>
-        <v>0.36</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>49</v>
+        <v>65.31</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="14"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="15">
-        <f>SUM(F2:F111)</f>
-        <v>16907.1084</v>
+        <v>159</v>
+      </c>
+      <c r="D112" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F112" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="113">
-      <c r="E113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F113" s="7">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="114">
-      <c r="E114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F114" s="7">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="115">
+      <c r="A115" s="14"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="E115" s="4"/>
+      <c r="F115" s="15">
+        <f>SUM(F2:F114)</f>
+        <v>16939.6584</v>
+      </c>
     </row>
     <row r="116">
       <c r="E116" s="4"/>
@@ -6223,6 +6301,15 @@
     </row>
     <row r="1103">
       <c r="E1103" s="4"/>
+    </row>
+    <row r="1104">
+      <c r="E1104" s="4"/>
+    </row>
+    <row r="1105">
+      <c r="E1105" s="4"/>
+    </row>
+    <row r="1106">
+      <c r="E1106" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6248,39 +6335,39 @@
     <hyperlink r:id="rId20" ref="H29"/>
     <hyperlink r:id="rId21" ref="H30"/>
     <hyperlink r:id="rId22" ref="H31"/>
-    <hyperlink r:id="rId23" ref="H33"/>
-    <hyperlink r:id="rId24" ref="H34"/>
-    <hyperlink r:id="rId25" ref="H35"/>
+    <hyperlink r:id="rId23" ref="H32"/>
+    <hyperlink r:id="rId24" ref="H33"/>
+    <hyperlink r:id="rId25" ref="H34"/>
     <hyperlink r:id="rId26" ref="H36"/>
-    <hyperlink r:id="rId27" ref="H39"/>
-    <hyperlink r:id="rId28" ref="H40"/>
-    <hyperlink r:id="rId29" ref="H41"/>
+    <hyperlink r:id="rId27" ref="H37"/>
+    <hyperlink r:id="rId28" ref="H38"/>
+    <hyperlink r:id="rId29" ref="H39"/>
     <hyperlink r:id="rId30" ref="H42"/>
     <hyperlink r:id="rId31" ref="H43"/>
     <hyperlink r:id="rId32" ref="H44"/>
     <hyperlink r:id="rId33" ref="H45"/>
-    <hyperlink r:id="rId34" ref="H48"/>
-    <hyperlink r:id="rId35" ref="H49"/>
-    <hyperlink r:id="rId36" ref="H50"/>
+    <hyperlink r:id="rId34" ref="H46"/>
+    <hyperlink r:id="rId35" ref="H47"/>
+    <hyperlink r:id="rId36" ref="H48"/>
     <hyperlink r:id="rId37" ref="H51"/>
     <hyperlink r:id="rId38" ref="H52"/>
     <hyperlink r:id="rId39" ref="H53"/>
     <hyperlink r:id="rId40" ref="H54"/>
-    <hyperlink r:id="rId41" ref="H59"/>
-    <hyperlink r:id="rId42" ref="H62"/>
-    <hyperlink r:id="rId43" ref="H63"/>
-    <hyperlink r:id="rId44" ref="H68"/>
-    <hyperlink r:id="rId45" ref="H69"/>
-    <hyperlink r:id="rId46" ref="H70"/>
+    <hyperlink r:id="rId41" ref="H55"/>
+    <hyperlink r:id="rId42" ref="H56"/>
+    <hyperlink r:id="rId43" ref="H57"/>
+    <hyperlink r:id="rId44" ref="H62"/>
+    <hyperlink r:id="rId45" ref="H65"/>
+    <hyperlink r:id="rId46" ref="H66"/>
     <hyperlink r:id="rId47" ref="H71"/>
     <hyperlink r:id="rId48" ref="H72"/>
     <hyperlink r:id="rId49" ref="H73"/>
     <hyperlink r:id="rId50" ref="H74"/>
     <hyperlink r:id="rId51" ref="H75"/>
     <hyperlink r:id="rId52" ref="H76"/>
-    <hyperlink r:id="rId53" ref="H80"/>
-    <hyperlink r:id="rId54" ref="H81"/>
-    <hyperlink r:id="rId55" ref="H82"/>
+    <hyperlink r:id="rId53" ref="H77"/>
+    <hyperlink r:id="rId54" ref="H78"/>
+    <hyperlink r:id="rId55" ref="H79"/>
     <hyperlink r:id="rId56" ref="H83"/>
     <hyperlink r:id="rId57" ref="H84"/>
     <hyperlink r:id="rId58" ref="H85"/>
@@ -6304,11 +6391,14 @@
     <hyperlink r:id="rId76" ref="H103"/>
     <hyperlink r:id="rId77" ref="H104"/>
     <hyperlink r:id="rId78" ref="H105"/>
-    <hyperlink r:id="rId79" ref="H108"/>
-    <hyperlink r:id="rId80" ref="H109"/>
-    <hyperlink r:id="rId81" ref="H110"/>
+    <hyperlink r:id="rId79" ref="H106"/>
+    <hyperlink r:id="rId80" ref="H107"/>
+    <hyperlink r:id="rId81" ref="H108"/>
     <hyperlink r:id="rId82" ref="H111"/>
+    <hyperlink r:id="rId83" ref="H112"/>
+    <hyperlink r:id="rId84" ref="H113"/>
+    <hyperlink r:id="rId85" ref="H114"/>
   </hyperlinks>
-  <drawing r:id="rId83"/>
+  <drawing r:id="rId86"/>
 </worksheet>
 </file>